--- a/TensorVals.xlsx
+++ b/TensorVals.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel and Py\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel and Py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{264C70B1-5ECB-482B-B08D-4710B39AA3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C833B5-CF15-4BB3-94C7-434C7D5883DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CA0763A6-D6A5-4A18-AE4F-619F8F803544}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{CA0763A6-D6A5-4A18-AE4F-619F8F803544}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Temp</t>
   </si>
@@ -59,12 +60,28 @@
   <si>
     <t>prandtl num</t>
   </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>lambda1</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,15 +90,20 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,16 +111,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -412,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6F1C2C-AE0B-4583-A275-EB003D8E2859}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,4 +1215,365 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E7166D-1081-40E3-9FF2-45102FE2E4DB}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="B2">
+        <v>0.14119999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1.0024999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.02</v>
+      </c>
+      <c r="B3">
+        <v>0.19950000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.0049999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.04</v>
+      </c>
+      <c r="B4">
+        <v>0.28139999999999998</v>
+      </c>
+      <c r="C4">
+        <v>1.0099</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.06</v>
+      </c>
+      <c r="B5">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="C5">
+        <v>1.1048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.08</v>
+      </c>
+      <c r="B6">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="C6">
+        <v>1.0197000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.1</v>
+      </c>
+      <c r="B7">
+        <v>0.44169999999999998</v>
+      </c>
+      <c r="C7">
+        <v>1.0246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.2</v>
+      </c>
+      <c r="B8">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="C8">
+        <v>1.0483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.3</v>
+      </c>
+      <c r="B9">
+        <v>0.74650000000000005</v>
+      </c>
+      <c r="C9">
+        <v>1.0711999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="C10">
+        <v>1.0931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.5</v>
+      </c>
+      <c r="B11">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="C11">
+        <v>1.1143000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.6</v>
+      </c>
+      <c r="B12">
+        <v>1.0184</v>
+      </c>
+      <c r="C12">
+        <v>1.1345000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.7</v>
+      </c>
+      <c r="B13">
+        <v>1.0872999999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.1538999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.8</v>
+      </c>
+      <c r="B14">
+        <v>1.149</v>
+      </c>
+      <c r="C14">
+        <v>1.1724000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.9</v>
+      </c>
+      <c r="B15">
+        <v>1.2048000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.1901999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1.2558</v>
+      </c>
+      <c r="C16">
+        <v>1.2071000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>1.5994999999999999</v>
+      </c>
+      <c r="C17">
+        <v>1.3384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>1.7887</v>
+      </c>
+      <c r="C18">
+        <v>1.4191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>1.9080999999999999</v>
+      </c>
+      <c r="C19">
+        <v>1.4698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1.9898</v>
+      </c>
+      <c r="C20">
+        <v>1.5028999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>2.0489999999999999</v>
+      </c>
+      <c r="C21">
+        <v>1.5253000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>2.0937000000000001</v>
+      </c>
+      <c r="C22">
+        <v>1.5410999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>2.1286</v>
+      </c>
+      <c r="C23">
+        <v>1.5526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>2.1566000000000001</v>
+      </c>
+      <c r="C24">
+        <v>1.5610999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>2.1795</v>
+      </c>
+      <c r="C25">
+        <v>1.5677000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20</v>
+      </c>
+      <c r="B26">
+        <v>2.2879999999999998</v>
+      </c>
+      <c r="C26">
+        <v>1.5919000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>2.3260999999999998</v>
+      </c>
+      <c r="C27">
+        <v>1.5972999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="C28">
+        <v>1.5992999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>2.3572000000000002</v>
+      </c>
+      <c r="C29">
+        <v>1.6002099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>100</v>
+      </c>
+      <c r="B30">
+        <v>2.3809</v>
+      </c>
+      <c r="C30">
+        <v>1.6014999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>100000</v>
+      </c>
+      <c r="B31">
+        <v>2.4047999999999998</v>
+      </c>
+      <c r="C31">
+        <v>1.6021000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>